--- a/EZStacking_config.xlsx
+++ b/EZStacking_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta_package" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,13 +16,13 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$137</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">meta_package!$A$1:$F$31</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">package!$A$1:$G$91</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">package!$A$1:$G$92</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">package_source!$A$1:$F$50</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">meta_package!$A$1:$F$30</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">package_source!$A$1:$F$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">package!$A$1:$G$90</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">package!$A$1:$G$88</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">package!$A$1:$F$88</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">package!$A$1:$G$91</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">package!$A$1:$G$89</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">package!$A$1:$F$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">package!$A$1:$F$83</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">document!$A$1:$J$130</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">document!$A$1:$J$129</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="569">
   <si>
     <t xml:space="preserve">meta_package_index</t>
   </si>
@@ -663,6 +663,9 @@
     <t xml:space="preserve">RBF</t>
   </si>
   <si>
+    <t xml:space="preserve">kernel</t>
+  </si>
+  <si>
     <t xml:space="preserve">DTC</t>
   </si>
   <si>
@@ -1125,12 +1128,21 @@
     <t xml:space="preserve">Dense</t>
   </si>
   <si>
+    <t xml:space="preserve">layer</t>
+  </si>
+  <si>
     <t xml:space="preserve">BANO</t>
   </si>
   <si>
     <t xml:space="preserve">BatchNormalization</t>
   </si>
   <si>
+    <t xml:space="preserve">LANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LayerNormalization</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEQ</t>
   </si>
   <si>
@@ -1491,7 +1503,7 @@
     <t xml:space="preserve">"y = pd.get_dummies(df[target_col])"</t>
   </si>
   <si>
-    <t xml:space="preserve">"X_train, X_test, y_train, y_test = split(X, y, test_size=0.33)"</t>
+    <t xml:space="preserve">"X_train, X_test, y_train, y_test = split(X, y, test_size=0.33, stratify=None)"</t>
   </si>
   <si>
     <t xml:space="preserve">Modelling</t>
@@ -1689,10 +1701,10 @@
     <t xml:space="preserve">Feature permutation importance (a posteriori)</t>
   </si>
   <si>
-    <t xml:space="preserve">"plot_perm_imp(model, X, y, scoring = 'r2');"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_perm_imp(model, X, y, scoring = 'accuracy');"</t>
+    <t xml:space="preserve">"plot_perm_imp(model, X_test, y_test, scoring = 'r2');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_perm_imp(model, X_test, y_test, scoring = 'accuracy');"</t>
   </si>
   <si>
     <t xml:space="preserve">ROC/AUC</t>
@@ -1742,7 +1754,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1763,11 +1775,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1812,7 +1819,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1839,10 +1846,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1888,13 +1891,13 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.36"/>
@@ -3662,12 +3665,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4028,7 +4031,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,13 +4039,13 @@
         <v>106</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>201</v>
@@ -4051,7 +4054,7 @@
         <v>181</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,13 +4062,13 @@
         <v>106</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>205</v>
@@ -4074,7 +4077,7 @@
         <v>181</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,13 +4085,13 @@
         <v>108</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>201</v>
@@ -4097,7 +4100,7 @@
         <v>181</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,13 +4108,13 @@
         <v>108</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>201</v>
@@ -4120,7 +4123,7 @@
         <v>181</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,13 +4131,13 @@
         <v>108</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>205</v>
@@ -4143,7 +4146,7 @@
         <v>181</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,13 +4154,13 @@
         <v>108</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>205</v>
@@ -4166,7 +4169,7 @@
         <v>181</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,13 +4177,13 @@
         <v>108</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>201</v>
@@ -4194,13 +4197,13 @@
         <v>108</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>205</v>
@@ -4214,13 +4217,13 @@
         <v>112</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>201</v>
@@ -4229,7 +4232,7 @@
         <v>181</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,13 +4240,13 @@
         <v>112</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>205</v>
@@ -4252,7 +4255,7 @@
         <v>181</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,13 +4263,13 @@
         <v>112</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>201</v>
@@ -4275,7 +4278,7 @@
         <v>181</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,7 +4286,7 @@
         <v>112</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>56</v>
@@ -4298,7 +4301,7 @@
         <v>181</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,13 +4309,13 @@
         <v>112</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>205</v>
@@ -4321,7 +4324,7 @@
         <v>181</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,19 +4332,19 @@
         <v>114</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>205</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,19 +4352,19 @@
         <v>114</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>205</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,19 +4372,19 @@
         <v>114</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,19 +4392,19 @@
         <v>114</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,19 +4412,19 @@
         <v>114</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,13 +4432,13 @@
         <v>116</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>79</v>
@@ -4449,13 +4452,13 @@
         <v>116</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>79</v>
@@ -4469,13 +4472,13 @@
         <v>116</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>79</v>
@@ -4489,13 +4492,13 @@
         <v>118</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>201</v>
@@ -4504,7 +4507,7 @@
         <v>181</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,13 +4515,13 @@
         <v>118</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>205</v>
@@ -4527,7 +4530,7 @@
         <v>181</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,13 +4538,13 @@
         <v>120</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>201</v>
@@ -4550,7 +4553,7 @@
         <v>181</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,13 +4561,13 @@
         <v>120</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>205</v>
@@ -4573,7 +4576,7 @@
         <v>181</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,13 +4584,13 @@
         <v>120</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>79</v>
@@ -4607,7 +4610,7 @@
         <v>62</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>201</v>
@@ -4616,7 +4619,7 @@
         <v>181</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4633,7 @@
         <v>68</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>79</v>
@@ -4644,13 +4647,13 @@
         <v>124</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>79</v>
@@ -4664,13 +4667,13 @@
         <v>126</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>79</v>
@@ -4684,13 +4687,13 @@
         <v>126</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>79</v>
@@ -4704,13 +4707,13 @@
         <v>126</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>79</v>
@@ -4724,13 +4727,13 @@
         <v>126</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>79</v>
@@ -4744,13 +4747,13 @@
         <v>126</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>79</v>
@@ -4764,13 +4767,13 @@
         <v>128</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>201</v>
@@ -4779,7 +4782,7 @@
         <v>181</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,13 +4790,13 @@
         <v>128</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>201</v>
@@ -4802,7 +4805,7 @@
         <v>181</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,13 +4813,13 @@
         <v>128</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>201</v>
@@ -4825,7 +4828,7 @@
         <v>181</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,13 +4836,13 @@
         <v>128</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>205</v>
@@ -4848,7 +4851,7 @@
         <v>181</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,13 +4859,13 @@
         <v>128</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>205</v>
@@ -4871,7 +4874,7 @@
         <v>181</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,13 +4882,13 @@
         <v>128</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>205</v>
@@ -4894,7 +4897,7 @@
         <v>181</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,19 +4905,19 @@
         <v>130</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,19 +4925,19 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,19 +4945,19 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,19 +4965,19 @@
         <v>132</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,19 +4985,19 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,19 +5005,19 @@
         <v>136</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,19 +5025,19 @@
         <v>136</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,19 +5045,19 @@
         <v>138</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,19 +5065,19 @@
         <v>138</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,19 +5085,19 @@
         <v>138</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,19 +5105,19 @@
         <v>140</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>205</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,19 +5125,19 @@
         <v>140</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>205</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,19 +5145,19 @@
         <v>142</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,19 +5165,19 @@
         <v>142</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,19 +5185,19 @@
         <v>144</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,19 +5205,19 @@
         <v>144</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>201</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,19 +5225,19 @@
         <v>146</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,13 +5245,13 @@
         <v>35</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>205</v>
@@ -5257,7 +5260,7 @@
         <v>181</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,13 +5268,13 @@
         <v>35</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>201</v>
@@ -5280,7 +5283,7 @@
         <v>181</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,19 +5291,19 @@
         <v>35</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,19 +5311,19 @@
         <v>35</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,13 +5331,13 @@
         <v>149</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>205</v>
@@ -5343,7 +5346,7 @@
         <v>181</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,13 +5354,13 @@
         <v>149</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>201</v>
@@ -5371,13 +5374,13 @@
         <v>149</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>205</v>
@@ -5386,7 +5389,7 @@
         <v>181</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,13 +5397,13 @@
         <v>149</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>201</v>
@@ -5414,19 +5417,19 @@
         <v>151</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>170</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,62 +5437,59 @@
         <v>151</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>153</v>
+      <c r="A85" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>365</v>
+      <c r="D85" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>170</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>155</v>
+      <c r="A86" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,65 +5497,65 @@
         <v>155</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>181</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>157</v>
+      <c r="A88" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>375</v>
+      <c r="D89" s="0" t="s">
+        <v>377</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>376</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,46 +5563,69 @@
         <v>159</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>380</v>
+      <c r="D91" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="F91" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" s="0" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G91"/>
+  <autoFilter ref="A1:G92"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5621,10 +5644,10 @@
   </sheetPr>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="E53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5643,34 +5666,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,10 +5719,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>79</v>
@@ -5728,10 +5751,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>79</v>
@@ -5760,13 +5783,13 @@
         <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,13 +5815,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,13 +5847,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,13 +5879,13 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,13 +5911,13 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,13 +5943,13 @@
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,13 +5975,13 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,13 +6007,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,13 +6039,13 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,14 +6071,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>405</v>
+      <c r="H13" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,13 +6104,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,14 +6135,14 @@
       <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>405</v>
+      <c r="H15" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,14 +6167,14 @@
       <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>405</v>
+      <c r="H16" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,14 +6199,14 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>405</v>
+      <c r="H17" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,14 +6231,14 @@
       <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>405</v>
+      <c r="H18" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,10 +6264,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>79</v>
@@ -6273,13 +6296,13 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,13 +6328,13 @@
         <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,13 +6360,13 @@
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,13 +6392,13 @@
         <v>7</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,13 +6424,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,13 +6456,13 @@
         <v>7</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,13 +6488,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6497,10 +6520,10 @@
         <v>7</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>79</v>
@@ -6533,7 +6556,7 @@
         <v>79</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,13 +6582,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,13 +6614,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,13 +6646,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,13 +6678,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,13 +6710,13 @@
         <v>7</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,13 +6742,13 @@
         <v>7</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,10 +6774,10 @@
         <v>7</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>79</v>
@@ -6783,10 +6806,10 @@
         <v>7</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>79</v>
@@ -6815,10 +6838,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>79</v>
@@ -6847,13 +6870,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,10 +6902,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>79</v>
@@ -6911,13 +6934,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,13 +6966,13 @@
         <v>7</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,13 +6998,13 @@
         <v>7</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,13 +7030,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,10 +7062,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>79</v>
@@ -7071,10 +7094,10 @@
         <v>7</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>79</v>
@@ -7103,13 +7126,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,13 +7158,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,13 +7190,13 @@
         <v>7</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,13 +7222,13 @@
         <v>7</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,13 +7254,13 @@
         <v>7</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,13 +7286,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,10 +7318,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>79</v>
@@ -7327,13 +7350,13 @@
         <v>7</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,13 +7382,13 @@
         <v>7</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,13 +7414,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,13 +7446,13 @@
         <v>7</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,13 +7478,13 @@
         <v>7</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,13 +7510,13 @@
         <v>7</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,10 +7542,10 @@
         <v>7</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>79</v>
@@ -7547,7 +7570,7 @@
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="8" t="n">
+      <c r="G60" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7556,7 +7579,7 @@
         <v>79</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,15 +7601,15 @@
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="8" t="n">
+      <c r="G61" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>79</v>
@@ -7611,7 +7634,7 @@
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="8" t="n">
+      <c r="G62" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7620,7 +7643,7 @@
         <v>79</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7642,7 +7665,7 @@
       <c r="F63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="8" t="n">
+      <c r="G63" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7650,7 +7673,7 @@
         <v>79</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7672,7 +7695,7 @@
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="8" t="n">
+      <c r="G64" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7680,7 +7703,7 @@
         <v>79</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +7716,7 @@
       <c r="C65" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7711,7 +7734,7 @@
         <v>79</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,7 +7764,7 @@
         <v>79</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,10 +7790,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>79</v>
@@ -7799,10 +7822,10 @@
         <v>7</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>79</v>
@@ -7832,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>79</v>
@@ -7865,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,7 +7925,7 @@
         <v>79</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,13 +7952,13 @@
         <v>1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,7 +8020,7 @@
         <v>79</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,13 +8047,13 @@
         <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8092,7 +8115,7 @@
         <v>79</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8119,13 +8142,13 @@
         <v>7</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8152,13 +8175,13 @@
         <v>7</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,7 +8194,7 @@
       <c r="C80" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="8" t="n">
+      <c r="D80" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8182,18 +8205,18 @@
       <c r="F80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="8" t="n">
+      <c r="G80" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,7 +8229,7 @@
       <c r="C81" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="8" t="n">
+      <c r="D81" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8217,18 +8240,18 @@
       <c r="F81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="8" t="n">
+      <c r="G81" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,7 +8264,7 @@
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="8" t="n">
+      <c r="D82" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8249,22 +8272,22 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F82" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="8" t="n">
+      <c r="F82" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,18 +8310,18 @@
       <c r="F83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="8" t="n">
+      <c r="G83" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,18 +8344,18 @@
       <c r="F84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="8" t="n">
+      <c r="G84" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,30 +8368,30 @@
       <c r="C85" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D85" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="8" t="n">
+      <c r="D85" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,30 +8404,30 @@
       <c r="C86" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D86" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="8" t="n">
+      <c r="D86" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,30 +8440,30 @@
       <c r="C87" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D87" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="8" t="n">
+      <c r="D87" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,30 +8476,30 @@
       <c r="C88" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D88" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E88" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="8" t="n">
+      <c r="D88" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,15 +8512,15 @@
       <c r="C89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="8" t="n">
+      <c r="D89" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8505,13 +8528,13 @@
         <v>7</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8524,11 +8547,11 @@
       <c r="C90" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D90" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="8" t="n">
+      <c r="D90" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8536,18 +8559,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G90" s="8" t="n">
+      <c r="G90" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8560,11 +8583,11 @@
       <c r="C91" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="8" t="n">
+      <c r="D91" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8572,18 +8595,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G91" s="8" t="n">
+      <c r="G91" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8596,11 +8619,11 @@
       <c r="C92" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="8" t="n">
+      <c r="D92" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8613,13 +8636,13 @@
         <v>1</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,11 +8655,11 @@
       <c r="C93" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="8" t="n">
+      <c r="D93" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8649,13 +8672,13 @@
         <v>1</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8668,11 +8691,11 @@
       <c r="C94" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="8" t="n">
+      <c r="D94" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8684,13 +8707,13 @@
         <v>7</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8717,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,13 +8773,13 @@
         <v>7</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,13 +8806,13 @@
         <v>7</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>525</v>
+        <v>437</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>529</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8816,13 +8839,13 @@
         <v>7</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>527</v>
+        <v>437</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>531</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8849,13 +8872,13 @@
         <v>7</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,11 +8891,11 @@
       <c r="C100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="8" t="n">
+      <c r="D100" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8883,13 +8906,13 @@
         <v>7</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8902,29 +8925,29 @@
       <c r="C101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="8" t="n">
+      <c r="D101" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="8" t="n">
+      <c r="G101" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,7 +8960,7 @@
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="8" t="n">
+      <c r="D102" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8945,22 +8968,22 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F102" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="8" t="n">
+      <c r="F102" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8988,13 +9011,13 @@
         <v>7</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,13 +9045,13 @@
         <v>7</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9052,18 +9075,18 @@
       <c r="F105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="8" t="n">
+      <c r="G105" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9087,18 +9110,18 @@
       <c r="F106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G106" s="8" t="n">
+      <c r="G106" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9111,7 +9134,7 @@
       <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="8" t="n">
+      <c r="D107" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9119,22 +9142,22 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F107" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="8" t="n">
+      <c r="F107" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9147,11 +9170,11 @@
       <c r="C108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E108" s="8" t="n">
+      <c r="D108" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9159,18 +9182,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G108" s="8" t="n">
+      <c r="G108" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,11 +9206,11 @@
       <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E109" s="8" t="n">
+      <c r="D109" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9195,7 +9218,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G109" s="8" t="n">
+      <c r="G109" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9204,7 +9227,7 @@
         <v>79</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9230,10 +9253,10 @@
         <v>7</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>79</v>
@@ -9249,11 +9272,11 @@
       <c r="C111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="8" t="n">
+      <c r="D111" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9264,13 +9287,13 @@
         <v>7</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9283,11 +9306,11 @@
       <c r="C112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="8" t="n">
+      <c r="D112" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9298,13 +9321,13 @@
         <v>7</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,29 +9340,29 @@
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E113" s="8" t="n">
+      <c r="D113" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="8" t="n">
+      <c r="G113" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9352,29 +9375,29 @@
       <c r="C114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E114" s="8" t="n">
+      <c r="D114" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="8" t="n">
+      <c r="G114" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,13 +9424,13 @@
         <v>7</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9434,13 +9457,13 @@
         <v>7</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9453,11 +9476,11 @@
       <c r="C117" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D117" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E117" s="8" t="n">
+      <c r="D117" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9468,13 +9491,13 @@
         <v>7</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9487,11 +9510,11 @@
       <c r="C118" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D118" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E118" s="8" t="n">
+      <c r="D118" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9502,13 +9525,13 @@
         <v>7</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9521,29 +9544,29 @@
       <c r="C119" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="8" t="n">
+      <c r="D119" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="8" t="n">
+      <c r="G119" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,29 +9579,29 @@
       <c r="C120" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="8" t="n">
+      <c r="D120" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G120" s="8" t="n">
+      <c r="G120" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9591,7 +9614,7 @@
       <c r="C121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="8" t="n">
+      <c r="D121" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9599,22 +9622,22 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F121" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="8" t="n">
+      <c r="F121" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9630,7 +9653,7 @@
       <c r="D122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="8" t="n">
+      <c r="E122" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9641,13 +9664,13 @@
         <v>7</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9663,7 +9686,7 @@
       <c r="D123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="8" t="n">
+      <c r="E123" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9674,13 +9697,13 @@
         <v>7</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9707,13 +9730,13 @@
         <v>7</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,7 +9767,7 @@
         <v>79</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9771,13 +9794,13 @@
         <v>7</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9804,13 +9827,13 @@
         <v>7</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9837,13 +9860,13 @@
         <v>7</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9870,13 +9893,13 @@
         <v>7</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9903,13 +9926,13 @@
         <v>7</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9925,7 +9948,7 @@
       <c r="D131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="8" t="n">
+      <c r="E131" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9936,13 +9959,13 @@
         <v>7</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9958,7 +9981,7 @@
       <c r="D132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="8" t="n">
+      <c r="E132" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9973,7 +9996,7 @@
         <v>79</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9989,7 +10012,7 @@
       <c r="D133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="8" t="n">
+      <c r="E133" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10000,13 +10023,13 @@
         <v>7</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10022,7 +10045,7 @@
       <c r="D134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E134" s="8" t="n">
+      <c r="E134" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10033,13 +10056,13 @@
         <v>7</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10055,7 +10078,7 @@
       <c r="D135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="8" t="n">
+      <c r="E135" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10066,13 +10089,13 @@
         <v>7</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,7 +10111,7 @@
       <c r="D136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="8" t="n">
+      <c r="E136" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10099,13 +10122,13 @@
         <v>7</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10121,7 +10144,7 @@
       <c r="D137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="8" t="n">
+      <c r="E137" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10132,13 +10155,13 @@
         <v>7</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/EZStacking_config.xlsx
+++ b/EZStacking_config.xlsx
@@ -14,7 +14,7 @@
     <sheet name="document" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$137</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$142</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">meta_package!$A$1:$F$31</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">package!$A$1:$G$92</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">package_source!$A$1:$F$50</definedName>
@@ -24,8 +24,9 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">package!$A$1:$G$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">package!$A$1:$F$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">package!$A$1:$F$83</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">document!$A$1:$J$130</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">document!$A$1:$J$129</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">document!$A$1:$J$132</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">document!$A$1:$J$131</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="578">
   <si>
     <t xml:space="preserve">meta_package_index</t>
   </si>
@@ -1491,18 +1492,33 @@
     <t xml:space="preserve">"class_balance(y)\nprint('Entropy = ', shannon_entropy(y))"</t>
   </si>
   <si>
+    <t xml:space="preserve">Splittings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"df = df_copy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"d_F=len(X.columns.tolist())"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"d_T=len(y.unique())"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoding data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"y = pd.Series(LabelEncoder().fit_transform(y))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"y = pd.get_dummies(df[target_col])"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Splitting data in train and test sets </t>
   </si>
   <si>
-    <t xml:space="preserve">"df = df_copy"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"y = pd.Series(LabelEncoder().fit_transform(y))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"y = pd.get_dummies(df[target_col])"</t>
-  </si>
-  <si>
     <t xml:space="preserve">"X_train, X_test, y_train, y_test = split(X, y, test_size=0.33, stratify=None)"</t>
   </si>
   <si>
@@ -1650,10 +1666,10 @@
     <t xml:space="preserve">Keras neural network description</t>
   </si>
   <si>
-    <t xml:space="preserve">"plot_model(K_Class(X,y), show_shapes=True, show_layer_names=True)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_model(K_Regre(X,y), show_shapes=True, show_layer_names=True)"</t>
+    <t xml:space="preserve">"plot_model(K_Class(), show_shapes=True, show_layer_names=True)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_model(K_Regre(), show_shapes=True, show_layer_names=True)"</t>
   </si>
   <si>
     <t xml:space="preserve">"plot_model(model, show_shapes=True, show_layer_names=True)"</t>
@@ -1744,6 +1760,42 @@
   </si>
   <si>
     <t xml:space="preserve">"prediction_error(model, X_train, y_train, X_test, y_test);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_classification_report(model, X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_confusion_matrix(model, X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 score</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">K_r2(model,X_train, y_train, X_test, y_test)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1754,7 +1806,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1775,6 +1827,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1819,7 +1876,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1849,6 +1906,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1897,7 +1958,7 @@
       <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.36"/>
@@ -5642,12 +5703,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="E81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="J109" activeCellId="0" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7681,29 +7742,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>7</v>
+      <c r="E64" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J64" s="3" t="s">
         <v>486</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,14 +7777,13 @@
         <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -7733,8 +7795,8 @@
       <c r="I65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>487</v>
+      <c r="J65" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7742,10 +7804,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>7</v>
@@ -7756,15 +7818,18 @@
       <c r="F66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="3"/>
+      <c r="G66" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I66" s="1" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,31 +7837,32 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>489</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,7 +7870,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
@@ -7822,13 +7888,13 @@
         <v>7</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>492</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,7 +7902,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
@@ -7850,15 +7916,14 @@
       <c r="F69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G69" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>79</v>
@@ -7869,7 +7934,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -7883,18 +7948,17 @@
       <c r="F70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7920,12 +7984,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7955,10 +8021,10 @@
         <v>437</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,7 +8055,7 @@
         <v>79</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,12 +8081,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I74" s="1" t="s">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8046,14 +8114,12 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="H75" s="3"/>
       <c r="I75" s="1" t="s">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,7 +8150,7 @@
         <v>79</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,12 +8176,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I77" s="1" t="s">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,32 +8191,30 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E78" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="G78" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="3"/>
       <c r="I78" s="1" t="s">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,32 +8222,30 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="G79" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,14 +8253,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E80" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8205,18 +8268,17 @@
       <c r="F80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G80" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>278</v>
+        <v>508</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,14 +8286,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8240,18 +8301,17 @@
       <c r="F81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G81" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>278</v>
+        <v>508</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8259,10 +8319,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D82" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8272,22 +8332,21 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F82" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F82" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G82" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>508</v>
+        <v>278</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,33 +8354,34 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D83" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G83" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>511</v>
+        <v>278</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,33 +8389,35 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>7</v>
+      <c r="D84" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G84" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8366,19 +8428,17 @@
         <v>29</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G85" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8388,10 +8448,10 @@
         <v>437</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,35 +8459,33 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D86" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G86" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,17 +8511,17 @@
         <v>0</v>
       </c>
       <c r="G87" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,17 +8547,17 @@
         <v>0</v>
       </c>
       <c r="G88" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8510,7 +8568,7 @@
         <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D89" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8524,8 +8582,9 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>7</v>
+      <c r="G89" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>437</v>
@@ -8534,7 +8593,7 @@
         <v>518</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,10 +8601,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D90" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8555,22 +8614,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F90" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F90" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G90" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,10 +8637,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D91" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8591,22 +8650,21 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F91" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G91" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F91" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8631,18 +8689,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G92" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G92" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,18 +8725,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G93" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G93" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,7 +8747,7 @@
         <v>35</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D94" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8703,17 +8761,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>7</v>
+      <c r="G94" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8721,32 +8780,35 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D95" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>7</v>
+      <c r="D95" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8754,20 +8816,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>7</v>
@@ -8776,10 +8840,10 @@
         <v>437</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8808,11 +8872,11 @@
       <c r="H97" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>530</v>
+      <c r="I97" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,11 +8905,11 @@
       <c r="H98" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>532</v>
+      <c r="J98" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8856,7 +8920,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -8872,13 +8936,13 @@
         <v>7</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J99" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I99" s="9" t="s">
         <v>534</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,15 +8953,14 @@
         <v>29</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>7</v>
@@ -8906,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>534</v>
+        <v>437</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,29 +8988,27 @@
       <c r="C101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D101" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G101" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>398</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8955,7 +9016,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>7</v>
@@ -8964,26 +9025,24 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F102" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E102" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>398</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,33 +9050,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E103" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D103" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>7</v>
+      <c r="G103" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9028,30 +9088,32 @@
         <v>40</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D104" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E104" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>7</v>
+      <c r="F104" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9065,8 +9127,8 @@
         <v>201</v>
       </c>
       <c r="D105" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E105" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9075,18 +9137,17 @@
       <c r="F105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G105" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9100,8 +9161,8 @@
         <v>205</v>
       </c>
       <c r="D106" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E106" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9110,18 +9171,17 @@
       <c r="F106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G106" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G106" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9132,9 +9192,9 @@
         <v>40</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="7" t="n">
+        <v>201</v>
+      </c>
+      <c r="D107" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9142,22 +9202,21 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F107" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F107" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G107" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9165,35 +9224,34 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E108" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G108" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J108" s="3" t="s">
         <v>541</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9201,7 +9259,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>7</v>
@@ -9210,24 +9268,26 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E109" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E109" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F109" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G109" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I109" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9235,31 +9295,35 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>7</v>
+      <c r="D110" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G110" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>79</v>
+        <v>545</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9267,7 +9331,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>7</v>
@@ -9280,20 +9344,20 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="F111" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G111" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3"/>
       <c r="I111" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>545</v>
+        <v>79</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9306,13 +9370,11 @@
       <c r="C112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -9321,13 +9383,13 @@
         <v>7</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>546</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,24 +9407,23 @@
         <v>0</v>
       </c>
       <c r="E113" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G113" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9380,15 +9441,14 @@
         <v>0</v>
       </c>
       <c r="E114" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G114" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>354</v>
@@ -9397,7 +9457,7 @@
         <v>79</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,29 +9468,31 @@
         <v>6</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D115" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>7</v>
+      <c r="G115" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9441,29 +9503,31 @@
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D116" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D116" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>7</v>
+      <c r="G116" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,18 +9535,17 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D117" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E117" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>7</v>
@@ -9497,7 +9560,7 @@
         <v>549</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9505,18 +9568,17 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D118" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E118" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -9527,11 +9589,11 @@
       <c r="H118" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="1" t="s">
         <v>549</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9549,24 +9611,23 @@
         <v>0</v>
       </c>
       <c r="E119" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G119" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,24 +9645,23 @@
         <v>0</v>
       </c>
       <c r="E120" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G120" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G120" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9609,35 +9669,34 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D121" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E121" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F121" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E121" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G121" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>549</v>
+      <c r="I121" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,13 +9704,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D122" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E122" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9660,17 +9720,18 @@
       <c r="F122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>7</v>
+      <c r="G122" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J122" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>554</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9678,32 +9739,35 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D123" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F123" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>555</v>
+      <c r="I123" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9711,17 +9775,17 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D124" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -9733,10 +9797,10 @@
         <v>409</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,17 +9808,17 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D125" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>7</v>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -9762,12 +9826,14 @@
       <c r="G125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I125" s="1" t="s">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,10 +9863,10 @@
         <v>409</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9826,14 +9892,12 @@
       <c r="G127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>562</v>
+      <c r="H127" s="3"/>
+      <c r="I127" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,11 +9926,11 @@
       <c r="H128" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="I128" s="1" t="s">
         <v>564</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,7 +9941,7 @@
         <v>33</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D129" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9895,11 +9959,11 @@
       <c r="H129" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>565</v>
+      <c r="I129" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,7 +9974,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D130" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9928,11 +9992,11 @@
       <c r="H130" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="J130" s="1" t="s">
+      <c r="I130" s="3" t="s">
         <v>568</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,14 +10007,14 @@
         <v>33</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -9962,10 +10026,10 @@
         <v>409</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>557</v>
+        <v>570</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9976,14 +10040,14 @@
         <v>33</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -9991,12 +10055,14 @@
       <c r="G132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I132" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>558</v>
+        <v>572</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10026,10 +10092,10 @@
         <v>409</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10055,14 +10121,12 @@
       <c r="G134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>562</v>
+      <c r="H134" s="3"/>
+      <c r="I134" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,11 +10155,11 @@
       <c r="H135" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="J135" s="3" t="s">
+      <c r="I135" s="1" t="s">
         <v>564</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,7 +10170,7 @@
         <v>33</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>7</v>
@@ -10124,11 +10188,11 @@
       <c r="H136" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>565</v>
+      <c r="I136" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,7 +10203,7 @@
         <v>33</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>7</v>
@@ -10157,15 +10221,186 @@
       <c r="H137" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="J137" s="1" t="s">
+      <c r="I137" s="3" t="s">
         <v>568</v>
       </c>
+      <c r="J137" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E140" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F140" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D141" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E141" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F141" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F142" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>577</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J137"/>
+  <autoFilter ref="A1:J142"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/EZStacking_config.xlsx
+++ b/EZStacking_config.xlsx
@@ -14,7 +14,7 @@
     <sheet name="document" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$142</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$141</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">meta_package!$A$1:$F$31</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">package!$A$1:$G$92</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">package_source!$A$1:$F$50</definedName>
@@ -24,9 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">package!$A$1:$G$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">package!$A$1:$F$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">package!$A$1:$F$83</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$139</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">document!$A$1:$J$132</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">document!$A$1:$J$131</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">document!$A$1:$J$134</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">document!$A$1:$J$133</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="584">
   <si>
     <t xml:space="preserve">meta_package_index</t>
   </si>
@@ -1510,274 +1509,22 @@
     <t xml:space="preserve">Encoding data</t>
   </si>
   <si>
-    <t xml:space="preserve">"y = pd.Series(LabelEncoder().fit_transform(y))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"y = pd.get_dummies(df[target_col])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splitting data in train and test sets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"X_train, X_test, y_train, y_test = split(X, y, test_size=0.33, stratify=None)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipeline building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the categorical and numerical columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"cat_selector = make_column_selector(dtype_include=object)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"num_selector = make_column_selector(dtype_include=np.number)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For models based on tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"cat_tree_processor = OrdinalEncoder(handle_unknown='use_encoded_value', unknown_value=-1)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"num_tree_processor = SimpleImputer(strategy='mean', add_indicator=True)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"tree_preprocessor = make_column_transformer((num_tree_processor, num_selector), (cat_tree_processor, cat_selector))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For models not based on tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"cat_ntree_processor = OneHotEncoder(handle_unknown='ignore')"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"num_ntree_processor = make_pipeline(StandardScaler(), SimpleImputer(strategy='mean', add_indicator=True))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ntree_preprocessor = make_column_transformer((num_ntree_processor, num_selector), (cat_ntree_processor, cat_selector))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keras neural network definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keras_nn_class(stacking, with_pipeline)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keras_nn_regre(stacking, with_pipeline)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, K_C)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, K_R)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Stopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"es = EarlyStopping(monitor='val_loss', mode='auto', verbose=1, patience=20)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level-0 models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level_0(pd_level_0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pipe_level_0(pd_level_0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = LogisticRegression()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = LinearRegression()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, LogisticRegression())"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, LinearRegression())"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible other models :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_model(pd_level_0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = XGBClassifier(max_depth=5, n_estimators=10, verbosity=0)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = XGBRegressor(max_depth=5, n_estimators=20, verbosity=0)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = make_pipeline(tree_preprocessor, XGBClassifier(max_depth=5, n_estimators=10, verbosity=0))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = make_pipeline(tree_preprocessor, XGBRegressor(max_depth=5, n_estimators=20, verbosity=0))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible other models based on decision trees:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_model(pd_tree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level-1 model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"level_1 = MLPRegressor()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"level_1 = MLPClassifier()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacking for regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = StackingRegressor(level_0, final_estimator=level_1)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacking for classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"model = StackingClassifier(level_0, final_estimator=level_1)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model fitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"%%time\nset_config(display='diagram') \nmodel.fit(X_train, y_train)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"%%time\nhistory = model.fit(X_train, y_train, batch_size=64, epochs=2000, validation_data=(X_test, y_test), callbacks=[es])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keras neural network description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_model(K_Class(), show_shapes=True, show_layer_names=True)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_model(K_Regre(), show_shapes=True, show_layer_names=True)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_model(model, show_shapes=True, show_layer_names=True)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_tree(model)\nplt.show()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"to_graphviz(model, num_trees=0, rankdir='LR')"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model scoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"print('Score on train set:', model.score(X_train, y_train))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"print('Score on test set:', model.score(X_test, y_test))"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"score_stacking_c(model, X_train, y_train, X_test, y_test)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"score_stacking_r(model, X_train, y_train, X_test, y_test)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"learning_curve(model, X_train, y_train, scoring='r2');"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"learning_curve(model, X_train, y_train, scoring='accuracy');"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_history(history);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature permutation importance (a posteriori)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_perm_imp(model, X_test, y_test, scoring = 'r2');"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"plot_perm_imp(model, X_test, y_test, scoring = 'accuracy');"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROC/AUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"classes = (y_train.append(y_test)).unique()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"roc_auc(model, X_train, y_train, X_test = X_test, y_test = y_test, classes = classes);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classification report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"classification_report(model, X_train, y_train, X_test, y_test, classes=classes, support=True);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confusion matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"confusion_matrix(model, X_train, y_train, X_test, y_test, classes=classes);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class prediction error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"class_prediction_error(model, X_train, y_train, X_test, y_test, classes=classes);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residuals plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"residuals_plot(model, X_train, y_train, X_test, y_test);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prediction error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"prediction_error(model, X_train, y_train, X_test, y_test);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"K_classification_report(model, X_train, y_train, X_test, y_test)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"K_confusion_matrix(model, X_train, y_train, X_test, y_test)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 score</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"target_encoder = </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">"</t>
+      <t xml:space="preserve">LabelEncoder()\n</t>
     </r>
     <r>
       <rPr>
@@ -1786,7 +1533,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">K_r2(model,X_train, y_train, X_test, y_test)</t>
+      <t xml:space="preserve">y = pd.Series(</t>
     </r>
     <r>
       <rPr>
@@ -1794,8 +1541,378 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">"</t>
+      <t xml:space="preserve">target_encoder</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.fit_transform(y))"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"y = pd.get_dummies(df[target_col])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splitting data in train and test sets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"X_train, X_test, y_train, y_test = split(X, y, test_size=0.33, stratify=None)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipeline building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the categorical and numerical columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"cat_selector = make_column_selector(dtype_include=object)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"num_selector = make_column_selector(dtype_include=np.number)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For models based on tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"cat_tree_processor = OrdinalEncoder(handle_unknown='use_encoded_value', unknown_value=-1)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"num_tree_processor = SimpleImputer(strategy='mean', add_indicator=True)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"tree_preprocessor = make_column_transformer((num_tree_processor, num_selector), (cat_tree_processor, cat_selector))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For models not based on tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"cat_ntree_processor = OneHotEncoder(handle_unknown='ignore')"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"num_ntree_processor = make_pipeline(StandardScaler(), SimpleImputer(strategy='mean', add_indicator=True))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ntree_preprocessor = make_column_transformer((num_ntree_processor, num_selector), (cat_ntree_processor, cat_selector))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keras neural network definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keras_nn_class(stacking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keras_nn_regre(stacking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Stopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"es = EarlyStopping(monitor='val_loss', mode='auto', verbose=1, patience=20)"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"K_C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = KerasBatchClassifier(K_Class,batch_size=64, epochs=2000, callbacks=[es],validation_data=(X_test, y_test), verbose=1)"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"K_R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = KerasBatchRegressor(K_Regre,batch_size=64, epochs=2000, callbacks=[es],validation_data=(X_test, y_test), verbose=1)"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, K_C)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = K_C"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, K_R)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = K_R"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level-0 models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_0(pd_level_0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipe_level_0(pd_level_0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = LogisticRegression()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = LinearRegression()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, LogisticRegression())"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, LinearRegression())"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible other models :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_model(pd_level_0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = XGBClassifier(max_depth=5, n_estimators=10, verbosity=0)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = XGBRegressor(max_depth=5, n_estimators=20, verbosity=0)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = make_pipeline(tree_preprocessor, XGBClassifier(max_depth=5, n_estimators=10, verbosity=0))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = make_pipeline(tree_preprocessor, XGBRegressor(max_depth=5, n_estimators=20, verbosity=0))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible other models based on decision trees:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_model(pd_tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level-1 model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"level_1 = MLPRegressor()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"level_1 = MLPClassifier()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacking for regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = StackingRegressor(level_0, final_estimator=level_1)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacking for classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"model = StackingClassifier(level_0, final_estimator=level_1)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model fitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"%%time\nset_config(display='diagram') \nmodel.fit(X_train, y_train)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"%%time\nhistory = model.fit(X_train, y_train, batch_size=64, epochs=2000, validation_data=(X_test, y_test), callbacks=[es])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keras neural network description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_model(K_Class(), show_shapes=True, show_layer_names=True)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_model(K_Regre(), show_shapes=True, show_layer_names=True)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_tree(model)\nplt.show()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"to_graphviz(model, num_trees=0, rankdir='LR')"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"print('Score on train set:', model.score(X_train, y_train))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"print('Score on test set:', model.score(X_test, y_test))"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"print('Score on train set:', model.score(X_train, y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.idxmax(axis=1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"print('Score on test set:', model.score(X_test, y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.idxmax(axis=1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"score_stacking_c(model, X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"score_stacking_r(model, X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"learning_curve(model, X_train, y_train, scoring='r2');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"learning_curve(model, X_train, y_train, scoring='accuracy');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature permutation importance (a posteriori)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_perm_imp(model, X_test, y_test, scoring = 'r2');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plot_perm_imp(model, X_test, y_test, scoring = 'accuracy');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC/AUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"classes = target_encoder.inverse_transform(y.unique())"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"roc_auc(model, X_train, y_train, X_test = X_test, y_test = y_test, classes = classes);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"classification_report(model, X_train, y_train, X_test, y_test, classes=classes, support=True);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confusion matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"confusion_matrix(model, X_train, y_train, X_test, y_test, classes=classes);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class prediction error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"class_prediction_error(model, X_train, y_train, X_test, y_test, classes=classes);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"residuals_plot(model, X_train, y_train, X_test, y_test);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prediction error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"prediction_error(model, X_train, y_train, X_test, y_test);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"classes = (y_train.append(y_test)).unique()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"classes = y.columns"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"roc_auc(model, X_train, y_train.idxmax(axis=1), X_test = X_test, y_test = y_test.idxmax(axis=1), classes = classes);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"classification_report(model, X_train, y_train.idxmax(axis=1), X_test, y_test.idxmax(axis=1), classes=classes, support=True);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"confusion_matrix(model, X_train, y_train.idxmax(axis=1), X_test, y_test.idxmax(axis=1), classes=classes);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"class_prediction_error(model, X_train, y_train.idxmax(axis=1), X_test, y_test.idxmax(axis=1), classes=classes);"</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2075,7 @@
       <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.36"/>
@@ -2675,7 +2792,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3723,7 +3840,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G92"/>
@@ -3731,7 +3848,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3769,7 +3886,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -3789,7 +3906,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3809,7 +3926,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -3829,7 +3946,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -3849,7 +3966,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -3869,7 +3986,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -3889,7 +4006,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -3909,7 +4026,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
@@ -3929,7 +4046,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -3949,7 +4066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -3969,7 +4086,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>100</v>
       </c>
@@ -3989,7 +4106,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>100</v>
       </c>
@@ -4009,7 +4126,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
@@ -4029,7 +4146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>102</v>
       </c>
@@ -4052,7 +4169,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
@@ -4075,7 +4192,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -4095,7 +4212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>106</v>
       </c>
@@ -4118,7 +4235,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>106</v>
       </c>
@@ -4141,7 +4258,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>108</v>
       </c>
@@ -4164,7 +4281,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -4187,7 +4304,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -4210,7 +4327,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -4233,7 +4350,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -4253,7 +4370,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>108</v>
       </c>
@@ -4273,7 +4390,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>112</v>
       </c>
@@ -4296,7 +4413,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>112</v>
       </c>
@@ -4319,7 +4436,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>112</v>
       </c>
@@ -4342,7 +4459,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>112</v>
       </c>
@@ -4365,7 +4482,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>112</v>
       </c>
@@ -4388,7 +4505,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
@@ -4408,7 +4525,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
@@ -4428,7 +4545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>114</v>
       </c>
@@ -4448,7 +4565,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -4468,7 +4585,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
@@ -4488,7 +4605,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>116</v>
       </c>
@@ -4508,7 +4625,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>116</v>
       </c>
@@ -4528,7 +4645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>116</v>
       </c>
@@ -4548,7 +4665,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -4571,7 +4688,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -4594,7 +4711,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>120</v>
       </c>
@@ -4617,7 +4734,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>120</v>
       </c>
@@ -4640,7 +4757,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>120</v>
       </c>
@@ -4660,7 +4777,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>122</v>
       </c>
@@ -4683,7 +4800,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>124</v>
       </c>
@@ -4703,7 +4820,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>124</v>
       </c>
@@ -4723,7 +4840,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>126</v>
       </c>
@@ -4743,7 +4860,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>126</v>
       </c>
@@ -4763,7 +4880,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>126</v>
       </c>
@@ -4783,7 +4900,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>126</v>
       </c>
@@ -4803,7 +4920,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>126</v>
       </c>
@@ -4823,7 +4940,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -4846,7 +4963,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -4869,7 +4986,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>128</v>
       </c>
@@ -4892,7 +5009,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -4915,7 +5032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>128</v>
       </c>
@@ -4938,7 +5055,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -4961,7 +5078,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>130</v>
       </c>
@@ -4981,7 +5098,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>130</v>
       </c>
@@ -5001,7 +5118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>130</v>
       </c>
@@ -5021,7 +5138,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
@@ -5041,7 +5158,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>134</v>
       </c>
@@ -5061,7 +5178,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>136</v>
       </c>
@@ -5081,7 +5198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -5101,7 +5218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>138</v>
       </c>
@@ -5121,7 +5238,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>138</v>
       </c>
@@ -5141,7 +5258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>138</v>
       </c>
@@ -5161,7 +5278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -5181,7 +5298,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -5201,7 +5318,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>142</v>
       </c>
@@ -5221,7 +5338,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>142</v>
       </c>
@@ -5241,7 +5358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
@@ -5261,7 +5378,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -5281,7 +5398,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -5301,7 +5418,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
@@ -5324,7 +5441,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -5347,7 +5464,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
@@ -5367,7 +5484,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>35</v>
       </c>
@@ -5387,7 +5504,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>149</v>
       </c>
@@ -5410,7 +5527,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>149</v>
       </c>
@@ -5430,7 +5547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>149</v>
       </c>
@@ -5453,7 +5570,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>149</v>
       </c>
@@ -5686,7 +5803,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G92"/>
+  <autoFilter ref="A1:G92">
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="KER"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5703,12 +5826,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="E30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J109" activeCellId="0" sqref="J109"/>
+      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7750,7 +7873,8 @@
       <c r="D64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="7" t="b">
+      <c r="E64" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -7765,7 +7889,7 @@
       <c r="I64" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="3" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7782,7 +7906,8 @@
       <c r="D65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="7" t="b">
+      <c r="E65" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -7795,7 +7920,7 @@
       <c r="I65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="3" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7809,8 +7934,8 @@
       <c r="C66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
+      <c r="D66" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>7</v>
@@ -7818,9 +7943,8 @@
       <c r="F66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G66" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>437</v>
@@ -7846,14 +7970,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7" t="b">
-        <v>0</v>
+      <c r="E67" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>437</v>
@@ -8319,10 +8445,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D82" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8332,21 +8458,21 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F82" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>278</v>
+        <v>511</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8354,10 +8480,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D83" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8367,21 +8493,19 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="F83" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>512</v>
+        <v>79</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,7 +8516,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D84" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8406,17 +8530,14 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G84" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="G84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="3"/>
       <c r="I84" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8425,33 +8546,34 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D85" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G85" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I85" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8459,33 +8581,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D86" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>437</v>
-      </c>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="0"/>
       <c r="I86" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>517</v>
+        <v>79</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,35 +8614,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D87" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E87" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E87" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G87" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>519</v>
+        <v>278</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,7 +8649,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>205</v>
@@ -8538,26 +8658,23 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E88" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E88" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G88" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="H88" s="3"/>
       <c r="I88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8568,32 +8685,30 @@
         <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G89" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8601,22 +8716,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D90" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G90" s="7" t="n">
         <f aca="false">TRUE()</f>
@@ -8626,10 +8739,10 @@
         <v>437</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,7 +8753,7 @@
         <v>29</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D91" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8654,17 +8767,18 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>7</v>
+      <c r="G91" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,10 +8786,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D92" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8685,9 +8799,9 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F92" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F92" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G92" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8697,10 +8811,10 @@
         <v>437</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8708,10 +8822,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D93" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8721,22 +8835,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F93" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F93" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G93" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8744,10 +8858,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D94" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8757,11 +8871,11 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F94" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G94" s="4" t="n">
+      <c r="F94" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8769,10 +8883,10 @@
         <v>437</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,10 +8894,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D95" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8793,21 +8907,20 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F95" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G95" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F95" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J95" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8819,7 +8932,7 @@
         <v>35</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D96" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8833,17 +8946,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>7</v>
+      <c r="G96" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8851,32 +8965,35 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>7</v>
+      <c r="D97" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G97" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8884,32 +9001,35 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D98" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>7</v>
+      <c r="D98" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I98" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8917,32 +9037,35 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>7</v>
+      <c r="D99" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I99" s="9" t="s">
-        <v>534</v>
+      <c r="I99" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8950,20 +9073,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D100" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>7</v>
@@ -8971,11 +9096,11 @@
       <c r="H100" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I100" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>537</v>
+      <c r="I100" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8986,7 +9111,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9002,13 +9127,13 @@
         <v>7</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9019,15 +9144,14 @@
         <v>29</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -9036,13 +9160,13 @@
         <v>7</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9053,30 +9177,28 @@
         <v>29</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G103" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I103" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I103" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="3" t="s">
         <v>539</v>
       </c>
     </row>
@@ -9085,35 +9207,32 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F104" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="J104" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I104" s="9" t="s">
         <v>540</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9121,18 +9240,17 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D105" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E105" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E105" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -9141,13 +9259,13 @@
         <v>7</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9155,18 +9273,18 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D106" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E106" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D106" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -9175,10 +9293,10 @@
         <v>7</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>543</v>
@@ -9189,16 +9307,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D107" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E107" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D107" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9210,13 +9328,13 @@
         <v>1</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9227,9 +9345,9 @@
         <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D108" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D108" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9237,21 +9355,22 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>7</v>
+      <c r="F108" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G108" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9262,32 +9381,30 @@
         <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E109" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F109" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,26 +9412,24 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G110" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>409</v>
@@ -9322,8 +9437,8 @@
       <c r="I110" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>546</v>
+      <c r="J110" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,33 +9446,34 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G111" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="3"/>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I111" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9365,31 +9481,34 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>7</v>
+      <c r="G112" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>79</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9397,7 +9516,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>7</v>
@@ -9410,20 +9529,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>7</v>
+      <c r="F113" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G113" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I113" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9431,7 +9552,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -9444,20 +9565,20 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>354</v>
-      </c>
+      <c r="F114" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G114" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="3"/>
       <c r="I114" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>551</v>
+      <c r="J114" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9470,29 +9591,26 @@
       <c r="C115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E115" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G115" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>550</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9510,24 +9628,23 @@
         <v>0</v>
       </c>
       <c r="E116" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G116" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,14 +9655,15 @@
         <v>6</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D117" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D117" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>7</v>
@@ -9554,13 +9672,13 @@
         <v>7</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9571,29 +9689,30 @@
         <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D118" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9601,33 +9720,33 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D119" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E119" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9635,18 +9754,17 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D120" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -9657,11 +9775,11 @@
       <c r="H120" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>554</v>
+      <c r="I120" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9669,34 +9787,32 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D121" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D121" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G121" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9707,7 +9823,7 @@
         <v>33</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D122" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9720,18 +9836,17 @@
       <c r="F122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G122" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>554</v>
+      <c r="I122" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9739,35 +9854,33 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D123" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E123" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F123" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E123" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9775,13 +9888,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>7</v>
+      <c r="D124" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E124" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9790,17 +9904,18 @@
       <c r="F124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>7</v>
+      <c r="G124" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="J124" s="3" t="s">
         <v>559</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9808,13 +9923,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>7</v>
+      <c r="D125" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E125" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9823,17 +9939,18 @@
       <c r="F125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>7</v>
+      <c r="G125" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>560</v>
+      <c r="I125" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9841,17 +9958,17 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D126" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -9863,10 +9980,10 @@
         <v>409</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9874,17 +9991,17 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D127" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>7</v>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -9892,12 +10009,14 @@
       <c r="G127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I127" s="1" t="s">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,10 +10046,10 @@
         <v>409</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J128" s="1" t="s">
         <v>565</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9956,13 +10075,11 @@
       <c r="G129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J129" s="1" t="s">
+      <c r="H129" s="3"/>
+      <c r="I129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J129" s="3" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9992,10 +10109,10 @@
       <c r="H130" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="I130" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="1" t="s">
         <v>569</v>
       </c>
     </row>
@@ -10007,7 +10124,7 @@
         <v>33</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D131" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10025,7 +10142,7 @@
       <c r="H131" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" s="3" t="s">
         <v>570</v>
       </c>
       <c r="J131" s="1" t="s">
@@ -10040,7 +10157,7 @@
         <v>33</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D132" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10058,10 +10175,10 @@
       <c r="H132" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I132" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="3" t="s">
         <v>573</v>
       </c>
     </row>
@@ -10073,14 +10190,14 @@
         <v>33</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -10092,10 +10209,10 @@
         <v>409</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>562</v>
+        <v>574</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,14 +10223,14 @@
         <v>33</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -10121,12 +10238,14 @@
       <c r="G134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I134" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>563</v>
+        <v>576</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10156,10 +10275,10 @@
         <v>409</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J135" s="1" t="s">
         <v>565</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10185,13 +10304,11 @@
       <c r="G136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J136" s="1" t="s">
+      <c r="H136" s="3"/>
+      <c r="I136" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J136" s="3" t="s">
         <v>567</v>
       </c>
     </row>
@@ -10221,10 +10338,10 @@
       <c r="H137" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="I137" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="J137" s="1" t="s">
         <v>569</v>
       </c>
     </row>
@@ -10236,7 +10353,7 @@
         <v>33</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>7</v>
@@ -10254,7 +10371,7 @@
       <c r="H138" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="I138" s="3" t="s">
         <v>570</v>
       </c>
       <c r="J138" s="1" t="s">
@@ -10269,7 +10386,7 @@
         <v>33</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>7</v>
@@ -10287,10 +10404,10 @@
       <c r="H139" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I139" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="3" t="s">
         <v>573</v>
       </c>
     </row>
@@ -10299,22 +10416,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D140" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E140" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F140" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>7</v>
@@ -10323,10 +10438,10 @@
         <v>409</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J140" s="8" t="s">
         <v>574</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,22 +10449,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D141" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E141" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F141" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>7</v>
@@ -10357,11 +10470,11 @@
       <c r="H141" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I141" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>575</v>
+      <c r="I141" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10369,16 +10482,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D142" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E142" s="4" t="n">
+      <c r="E142" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10386,21 +10499,229 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I142" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F143" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F144" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F145" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F146" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D147" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F147" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D148" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F148" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J142" s="8" t="s">
+      <c r="J148" s="1" t="s">
         <v>577</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J142"/>
+  <autoFilter ref="A1:J141"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/EZStacking_config.xlsx
+++ b/EZStacking_config.xlsx
@@ -14,7 +14,7 @@
     <sheet name="document" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$141</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$153</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">meta_package!$A$1:$F$31</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">package!$A$1:$G$92</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">package_source!$A$1:$F$50</definedName>
@@ -24,8 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">package!$A$1:$G$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">package!$A$1:$F$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">package!$A$1:$F$83</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">document!$A$1:$J$134</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">document!$A$1:$J$133</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$138</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">document!$A$1:$J$137</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="584">
   <si>
     <t xml:space="preserve">meta_package_index</t>
   </si>
@@ -1509,49 +1509,7 @@
     <t xml:space="preserve">Encoding data</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"target_encoder = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LabelEncoder()\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">y = pd.Series(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">target_encoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.fit_transform(y))"</t>
-    </r>
+    <t xml:space="preserve">"target_encoder = LabelEncoder()\ny = pd.Series(target_encoder.fit_transform(y))"</t>
   </si>
   <si>
     <t xml:space="preserve">"y = pd.get_dummies(df[target_col])"</t>
@@ -1620,42 +1578,10 @@
     <t xml:space="preserve">"es = EarlyStopping(monitor='val_loss', mode='auto', verbose=1, patience=20)"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"K_C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = KerasBatchClassifier(K_Class,batch_size=64, epochs=2000, callbacks=[es],validation_data=(X_test, y_test), verbose=1)"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"K_R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = KerasBatchRegressor(K_Regre,batch_size=64, epochs=2000, callbacks=[es],validation_data=(X_test, y_test), verbose=1)"</t>
-    </r>
+    <t xml:space="preserve">"K_C = KerasBatchClassifier(K_Class,batch_size=64, epochs=2000, callbacks=[es],validation_data=(X_test, y_test), verbose=1)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_R = KerasBatchRegressor(K_Regre,batch_size=64, epochs=2000, callbacks=[es],validation_data=(X_test, y_test), verbose=1)"</t>
   </si>
   <si>
     <t xml:space="preserve">"model = make_pipeline(ntree_preprocessor, K_C)"</t>
@@ -1778,60 +1704,10 @@
     <t xml:space="preserve">"print('Score on test set:', model.score(X_test, y_test))"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"print('Score on train set:', model.score(X_train, y_train</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.idxmax(axis=1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">))"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"print('Score on test set:', model.score(X_test, y_test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.idxmax(axis=1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">))"</t>
-    </r>
+    <t xml:space="preserve">"print('Score on train set:', model.score(X_train, y_train.idxmax(axis=1)))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"print('Score on test set:', model.score(X_test, y_test.idxmax(axis=1)))"</t>
   </si>
   <si>
     <t xml:space="preserve">"score_stacking_c(model, X_train, y_train, X_test, y_test)"</t>
@@ -1864,6 +1740,9 @@
     <t xml:space="preserve">"classes = target_encoder.inverse_transform(y.unique())"</t>
   </si>
   <si>
+    <t xml:space="preserve">"classes = y.unique()"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"roc_auc(model, X_train, y_train, X_test = X_test, y_test = y_test, classes = classes);"</t>
   </si>
   <si>
@@ -1895,9 +1774,6 @@
   </si>
   <si>
     <t xml:space="preserve">"prediction_error(model, X_train, y_train, X_test, y_test);"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"classes = (y_train.append(y_test)).unique()"</t>
   </si>
   <si>
     <t xml:space="preserve">"classes = y.columns"</t>
@@ -1923,7 +1799,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1944,11 +1820,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1993,7 +1864,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2023,10 +1894,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2072,10 +1939,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.36"/>
@@ -5826,12 +5693,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="E126" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B153" activeCellId="0" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7934,7 +7801,8 @@
       <c r="C66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="7" t="b">
+      <c r="D66" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -7961,7 +7829,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>201</v>
@@ -7971,12 +7839,12 @@
         <v>0</v>
       </c>
       <c r="E67" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F67" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>7</v>
@@ -7987,8 +7855,8 @@
       <c r="I67" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>491</v>
+      <c r="J67" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7996,31 +7864,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8028,7 +7899,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
@@ -8046,13 +7917,13 @@
         <v>7</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>492</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,10 +7949,10 @@
         <v>7</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>79</v>
@@ -8092,7 +7963,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -8106,15 +7977,14 @@
       <c r="F71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>79</v>
@@ -8144,13 +8014,13 @@
         <v>1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8176,12 +8046,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I73" s="1" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8207,14 +8079,12 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,12 +8110,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I75" s="1" t="s">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,7 +8148,7 @@
         <v>79</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8302,14 +8174,12 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="H77" s="3"/>
       <c r="I77" s="1" t="s">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,12 +8205,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I78" s="1" t="s">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8371,7 +8243,7 @@
         <v>79</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,32 +8251,30 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="G80" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8415,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>7</v>
@@ -8437,7 +8307,7 @@
         <v>508</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8448,31 +8318,29 @@
         <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E82" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F82" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="7" t="s">
+      <c r="F82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,7 +8351,7 @@
         <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D83" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8497,15 +8365,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="3"/>
+      <c r="G83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I83" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8516,7 +8386,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D84" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8537,8 +8407,8 @@
       <c r="I84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>514</v>
+      <c r="J84" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8546,10 +8416,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D85" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8559,21 +8429,19 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="F85" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="1" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8581,7 +8449,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>201</v>
@@ -8598,15 +8466,17 @@
         <v>7</v>
       </c>
       <c r="G86" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="0"/>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I86" s="1" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8614,10 +8484,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D87" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8631,17 +8501,15 @@
         <v>7</v>
       </c>
       <c r="G87" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>437</v>
-      </c>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="0"/>
       <c r="I87" s="1" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,15 +8534,17 @@
         <v>7</v>
       </c>
       <c r="G88" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="3"/>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="I88" s="1" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,17 +8552,18 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D89" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -8701,14 +8572,12 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="H89" s="3"/>
       <c r="I89" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>520</v>
+        <v>79</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8716,7 +8585,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>7</v>
@@ -8732,8 +8601,8 @@
         <v>7</v>
       </c>
       <c r="G90" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>437</v>
@@ -8742,7 +8611,7 @@
         <v>519</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,35 +8619,33 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G91" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,7 +8656,7 @@
         <v>29</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D92" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8814,7 +8681,7 @@
         <v>522</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8825,7 +8692,7 @@
         <v>29</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D93" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8840,8 +8707,8 @@
         <v>0</v>
       </c>
       <c r="G93" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>437</v>
@@ -8850,7 +8717,7 @@
         <v>522</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,7 +8728,7 @@
         <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D94" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8886,7 +8753,7 @@
         <v>522</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,7 +8764,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D95" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8911,17 +8778,18 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>7</v>
+      <c r="G95" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,10 +8797,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="D96" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8942,22 +8810,21 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F96" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G96" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F96" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8968,7 +8835,7 @@
         <v>35</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D97" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -8993,7 +8860,7 @@
         <v>522</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9004,7 +8871,7 @@
         <v>35</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D98" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9018,9 +8885,9 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G98" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G98" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>437</v>
@@ -9029,7 +8896,7 @@
         <v>522</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,7 +8907,7 @@
         <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D99" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9065,7 +8932,7 @@
         <v>522</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9076,7 +8943,7 @@
         <v>35</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D100" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9090,17 +8957,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>7</v>
+      <c r="G100" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>437</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9108,20 +8976,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D101" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>7</v>
@@ -9130,10 +9000,10 @@
         <v>437</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9144,7 +9014,7 @@
         <v>29</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9166,7 +9036,7 @@
         <v>535</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9177,7 +9047,7 @@
         <v>29</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D103" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9195,11 +9065,11 @@
       <c r="H103" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>539</v>
+      <c r="I103" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9210,7 +9080,7 @@
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D104" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9228,11 +9098,11 @@
       <c r="H104" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I104" s="9" t="s">
-        <v>540</v>
+      <c r="I104" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9243,7 +9113,7 @@
         <v>29</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D105" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9259,13 +9129,13 @@
         <v>7</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>543</v>
+        <v>437</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,13 +9148,12 @@
       <c r="C106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D106" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -9317,15 +9186,14 @@
         <v>0</v>
       </c>
       <c r="E107" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G107" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G107" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>398</v>
@@ -9342,7 +9210,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>7</v>
@@ -9351,17 +9219,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E108" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F108" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E108" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G108" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>398</v>
@@ -9370,7 +9237,7 @@
         <v>542</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9381,30 +9248,32 @@
         <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D109" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E109" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>7</v>
+      <c r="F109" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,7 +9284,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D110" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9438,7 +9307,7 @@
         <v>545</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,11 +9318,11 @@
         <v>40</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D111" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E111" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9462,9 +9331,8 @@
       <c r="F111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G111" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G111" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>409</v>
@@ -9473,7 +9341,7 @@
         <v>545</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9484,7 +9352,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D112" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -9508,7 +9376,7 @@
         <v>545</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9516,35 +9384,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E113" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G113" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,12 +9440,14 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I114" s="1" t="s">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9586,31 +9455,33 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="D115" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G115" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="3"/>
       <c r="I115" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>79</v>
+        <v>79</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,13 +9494,11 @@
       <c r="C116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E116" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -9638,13 +9507,13 @@
         <v>7</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>553</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,13 +9541,13 @@
         <v>7</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9696,23 +9565,23 @@
         <v>0</v>
       </c>
       <c r="E118" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9723,7 +9592,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D119" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9740,13 +9609,13 @@
         <v>7</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9759,27 +9628,28 @@
       <c r="C120" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>7</v>
+      <c r="D120" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9792,17 +9662,18 @@
       <c r="C121" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D121" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>7</v>
+      <c r="D121" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H121" s="3" t="s">
@@ -9812,7 +9683,7 @@
         <v>552</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9820,7 +9691,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>205</v>
@@ -9830,23 +9701,23 @@
         <v>0</v>
       </c>
       <c r="E122" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9854,18 +9725,17 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D123" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D123" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -9876,11 +9746,11 @@
       <c r="H123" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>559</v>
+      <c r="I123" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,34 +9758,32 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D124" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E124" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D124" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G124" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G124" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,7 +9794,7 @@
         <v>33</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D125" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9939,18 +9807,17 @@
       <c r="F125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G125" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="I125" s="1" t="s">
         <v>559</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9958,13 +9825,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D126" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E126" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -9979,11 +9847,11 @@
       <c r="H126" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>563</v>
+      <c r="I126" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9991,13 +9859,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D127" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E127" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -10006,17 +9875,18 @@
       <c r="F127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>7</v>
+      <c r="G127" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,27 +9899,29 @@
       <c r="C128" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D128" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>7</v>
+      <c r="D128" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>7</v>
+      <c r="G128" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>566</v>
+      <c r="I128" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10057,17 +9929,17 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D129" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -10075,12 +9947,14 @@
       <c r="G129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="I129" s="1" t="s">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,17 +9962,17 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D130" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>7</v>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -10110,10 +9984,10 @@
         <v>409</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10136,17 +10010,18 @@
       <c r="F131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>7</v>
+      <c r="G131" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>571</v>
+      <c r="I131" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,17 +10044,18 @@
       <c r="F132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>7</v>
+      <c r="G132" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>572</v>
+      <c r="I132" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10190,7 +10066,7 @@
         <v>33</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D133" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10205,14 +10081,12 @@
       <c r="G133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="H133" s="3"/>
       <c r="I133" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>575</v>
+        <v>79</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10223,7 +10097,7 @@
         <v>33</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D134" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10242,10 +10116,10 @@
         <v>409</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,12 +10132,12 @@
       <c r="C135" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D135" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -10274,11 +10148,11 @@
       <c r="H135" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>578</v>
+      <c r="I135" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10291,12 +10165,12 @@
       <c r="C136" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D136" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -10304,12 +10178,14 @@
       <c r="G136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="1" t="s">
-        <v>79</v>
+      <c r="H136" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10320,14 +10196,14 @@
         <v>33</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -10339,10 +10215,10 @@
         <v>409</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10353,14 +10229,14 @@
         <v>33</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D138" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -10371,11 +10247,11 @@
       <c r="H138" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I138" s="3" t="s">
-        <v>570</v>
+      <c r="I138" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10388,27 +10264,29 @@
       <c r="C139" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>7</v>
+      <c r="D139" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E139" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="1" t="s">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F139" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I139" s="3" t="s">
-        <v>572</v>
+      <c r="I139" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,29 +10297,29 @@
         <v>33</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D140" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E140" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>409</v>
-      </c>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F140" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="3"/>
       <c r="I140" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>575</v>
+        <v>79</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,29 +10330,31 @@
         <v>33</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="D141" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E141" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G141" s="1" t="s">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F141" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10505,11 +10385,11 @@
       <c r="H142" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>579</v>
+      <c r="I142" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10537,12 +10417,14 @@
       <c r="G143" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H143" s="3"/>
-      <c r="I143" s="1" t="s">
-        <v>79</v>
+      <c r="H143" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10553,7 +10435,7 @@
         <v>33</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D144" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -10574,10 +10456,10 @@
         <v>409</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10588,7 +10470,7 @@
         <v>33</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D145" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -10608,11 +10490,11 @@
       <c r="H145" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I145" s="3" t="s">
-        <v>570</v>
+      <c r="I145" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10630,24 +10512,24 @@
         <v>0</v>
       </c>
       <c r="E146" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F146" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>7</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I146" s="3" t="s">
-        <v>572</v>
+      <c r="I146" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10658,31 +10540,31 @@
         <v>33</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D147" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E147" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F147" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>7</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>409</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10693,35 +10575,202 @@
         <v>33</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D150" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D151" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D148" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E148" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F148" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H148" s="3" t="s">
+      <c r="D152" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="I152" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J148" s="1" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D153" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="J153" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J141"/>
+  <autoFilter ref="A1:J153"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/EZStacking_config.xlsx
+++ b/EZStacking_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta_package" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
     <sheet name="document" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$153</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$K$153</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">meta_package!$A$1:$F$31</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">package!$A$1:$G$92</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">package_source!$A$1:$F$50</definedName>
@@ -24,8 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">package!$A$1:$G$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">package!$A$1:$F$89</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">package!$A$1:$F$83</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">document!$A$1:$J$138</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">document!$A$1:$J$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">document!$A$1:$K$138</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">document!$A$1:$K$137</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="591">
   <si>
     <t xml:space="preserve">meta_package_index</t>
   </si>
@@ -1212,6 +1212,9 @@
     <t xml:space="preserve">document_pipeline</t>
   </si>
   <si>
+    <t xml:space="preserve">document_yb</t>
+  </si>
+  <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
@@ -1671,7 +1674,7 @@
     <t xml:space="preserve">"%%time\nset_config(display='diagram') \nmodel.fit(X_train, y_train)"</t>
   </si>
   <si>
-    <t xml:space="preserve">"%%time\nhistory = model.fit(X_train, y_train, batch_size=64, epochs=2000, validation_data=(X_test, y_test), callbacks=[es])"</t>
+    <t xml:space="preserve">"%%time\nmodel.fit(X_train, y_train, batch_size=64, epochs=2000, validation_data=(X_test, y_test), callbacks=[es])"</t>
   </si>
   <si>
     <t xml:space="preserve">Keras neural network description</t>
@@ -1789,6 +1792,24 @@
   </si>
   <si>
     <t xml:space="preserve">"class_prediction_error(model, X_train, y_train.idxmax(axis=1), X_test, y_test.idxmax(axis=1), classes=classes);"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_classification_report(model, X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_confusion_matrix(model, X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_r2(model,X_train, y_train, X_test, y_test)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_classification_report(model, X_train, y_train.idxmax(axis=1), X_test, y_test.idxmax(axis=1))"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"K_confusion_matrix(model, X_train, y_train.idxmax(axis=1), X_test, y_test.idxmax(axis=1))"</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1960,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.36"/>
@@ -3707,12 +3728,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
@@ -3753,7 +3774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -3773,7 +3794,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3793,7 +3814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -3813,7 +3834,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -3833,7 +3854,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -3853,7 +3874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -3873,7 +3894,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -3933,7 +3954,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -3953,7 +3974,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>100</v>
       </c>
@@ -3973,7 +3994,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>100</v>
       </c>
@@ -3993,7 +4014,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
@@ -4013,7 +4034,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>102</v>
       </c>
@@ -4036,7 +4057,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
@@ -4059,7 +4080,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -4079,7 +4100,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>106</v>
       </c>
@@ -4102,7 +4123,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>106</v>
       </c>
@@ -4125,7 +4146,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>108</v>
       </c>
@@ -4148,7 +4169,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -4171,7 +4192,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -4194,7 +4215,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -4217,7 +4238,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>108</v>
       </c>
@@ -4257,7 +4278,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>112</v>
       </c>
@@ -4280,7 +4301,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>112</v>
       </c>
@@ -4303,7 +4324,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>112</v>
       </c>
@@ -4326,7 +4347,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>112</v>
       </c>
@@ -4349,7 +4370,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>112</v>
       </c>
@@ -4372,7 +4393,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
@@ -4392,7 +4413,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
@@ -4412,7 +4433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>114</v>
       </c>
@@ -4432,7 +4453,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -4452,7 +4473,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
@@ -4472,7 +4493,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>116</v>
       </c>
@@ -4492,7 +4513,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>116</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>116</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -4555,7 +4576,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -4578,7 +4599,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>120</v>
       </c>
@@ -4601,7 +4622,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>120</v>
       </c>
@@ -4624,7 +4645,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>120</v>
       </c>
@@ -4644,7 +4665,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>122</v>
       </c>
@@ -4667,7 +4688,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>124</v>
       </c>
@@ -4687,7 +4708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>124</v>
       </c>
@@ -4707,7 +4728,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>126</v>
       </c>
@@ -4727,7 +4748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>126</v>
       </c>
@@ -4747,7 +4768,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>126</v>
       </c>
@@ -4767,7 +4788,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>126</v>
       </c>
@@ -4787,7 +4808,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>126</v>
       </c>
@@ -4807,7 +4828,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -4830,7 +4851,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -4853,7 +4874,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>128</v>
       </c>
@@ -4876,7 +4897,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -4899,7 +4920,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>128</v>
       </c>
@@ -4922,7 +4943,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -4945,7 +4966,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>130</v>
       </c>
@@ -4965,7 +4986,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>130</v>
       </c>
@@ -4985,7 +5006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>130</v>
       </c>
@@ -5005,7 +5026,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
@@ -5025,7 +5046,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>134</v>
       </c>
@@ -5045,7 +5066,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>136</v>
       </c>
@@ -5065,7 +5086,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -5085,7 +5106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>138</v>
       </c>
@@ -5105,7 +5126,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>138</v>
       </c>
@@ -5125,7 +5146,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>138</v>
       </c>
@@ -5145,7 +5166,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -5165,7 +5186,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -5185,7 +5206,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>142</v>
       </c>
@@ -5205,7 +5226,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>142</v>
       </c>
@@ -5225,7 +5246,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
@@ -5245,7 +5266,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -5265,7 +5286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -5285,7 +5306,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5329,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -5331,7 +5352,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
@@ -5351,7 +5372,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>35</v>
       </c>
@@ -5371,7 +5392,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>149</v>
       </c>
@@ -5394,7 +5415,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>149</v>
       </c>
@@ -5414,7 +5435,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>149</v>
       </c>
@@ -5437,7 +5458,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>149</v>
       </c>
@@ -5670,13 +5691,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G92">
-    <filterColumn colId="2">
-      <customFilters and="true">
-        <customFilter operator="equal" val="KER"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G92"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5693,12 +5708,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B153" activeCellId="0" sqref="B153"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="E131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="K158" activeCellId="0" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5709,10 +5724,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="39.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="81.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="70" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="81.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="71" style="2" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,6 +5762,9 @@
       <c r="J1" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -5769,13 +5788,16 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>395</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5801,13 +5823,16 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>397</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5833,14 +5858,17 @@
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>398</v>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>400</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5866,13 +5894,16 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>401</v>
+      <c r="J5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,13 +5929,16 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>402</v>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,13 +5964,16 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>403</v>
+        <v>79</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,13 +5999,16 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>404</v>
+        <v>79</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,13 +6034,16 @@
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>405</v>
+        <v>79</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,13 +6069,16 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>406</v>
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,13 +6104,16 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>407</v>
+        <v>79</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,13 +6139,16 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>408</v>
+        <v>79</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6122,14 +6174,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>411</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,14 +6209,17 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>412</v>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>413</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,14 +6244,17 @@
       <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>414</v>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>415</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,14 +6279,17 @@
       <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>416</v>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>417</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,14 +6314,17 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>418</v>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>419</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,14 +6349,17 @@
       <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>420</v>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>421</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,13 +6384,16 @@
       <c r="G19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>422</v>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6346,14 +6419,17 @@
       <c r="G20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>423</v>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>424</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,14 +6454,17 @@
       <c r="G21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>425</v>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>426</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,13 +6490,16 @@
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>427</v>
+        <v>79</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,14 +6524,17 @@
       <c r="G23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>428</v>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>429</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,13 +6560,16 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>431</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,13 +6595,16 @@
         <v>7</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>432</v>
+        <v>79</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,14 +6629,17 @@
       <c r="G26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>433</v>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>434</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,13 +6664,16 @@
       <c r="G27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>435</v>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6602,12 +6699,16 @@
       <c r="G28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>436</v>
+      <c r="H28" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,14 +6733,17 @@
       <c r="G29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>437</v>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>438</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>439</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,14 +6768,17 @@
       <c r="G30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>440</v>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>441</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,14 +6803,17 @@
       <c r="G31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>442</v>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6728,14 +6838,17 @@
       <c r="G32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>443</v>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>444</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,14 +6873,17 @@
       <c r="G33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>409</v>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J33" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>446</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,13 +6909,16 @@
         <v>7</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>447</v>
+        <v>79</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,13 +6943,17 @@
       <c r="G35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>448</v>
+      <c r="H35" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6856,13 +6979,16 @@
       <c r="G36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>448</v>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6888,13 +7014,17 @@
       <c r="G37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>449</v>
+      <c r="H37" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6920,14 +7050,18 @@
       <c r="G38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>450</v>
+      <c r="H38" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>451</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,13 +7086,17 @@
       <c r="G39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>452</v>
+      <c r="H39" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6984,14 +7122,18 @@
       <c r="G40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="1" t="s">
         <v>455</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7016,14 +7158,18 @@
       <c r="G41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="H41" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>457</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,14 +7194,18 @@
       <c r="G42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="H42" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>459</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,14 +7230,18 @@
       <c r="G43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="H43" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>461</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,13 +7266,17 @@
       <c r="G44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>462</v>
+      <c r="H44" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7144,13 +7302,16 @@
       <c r="G45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>462</v>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7176,14 +7337,18 @@
       <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>463</v>
+      <c r="H46" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>464</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7208,14 +7373,18 @@
       <c r="G47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>465</v>
+        <v>79</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,14 +7409,18 @@
       <c r="G48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>466</v>
+        <v>79</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,14 +7445,17 @@
       <c r="G49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>467</v>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>468</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,14 +7480,17 @@
       <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>467</v>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,14 +7515,17 @@
       <c r="G51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>470</v>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>471</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,13 +7550,17 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>472</v>
+      <c r="H52" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7400,14 +7586,18 @@
       <c r="G53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>473</v>
+      <c r="H53" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>474</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,14 +7622,18 @@
       <c r="G54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>437</v>
+      <c r="H54" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>475</v>
+        <v>438</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7464,14 +7658,18 @@
       <c r="G55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>476</v>
+      <c r="H55" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>477</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,14 +7694,18 @@
       <c r="G56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>437</v>
+      <c r="H56" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="J56" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>479</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7528,14 +7730,18 @@
       <c r="G57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>480</v>
+      <c r="H57" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>481</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,14 +7766,18 @@
       <c r="G58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>482</v>
+      <c r="H58" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>483</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,13 +7802,16 @@
       <c r="G59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>484</v>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7625,12 +7838,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>485</v>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7656,13 +7872,16 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>409</v>
+      <c r="H61" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J61" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7689,12 +7908,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>446</v>
+        <v>79</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7720,11 +7942,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>79</v>
+      <c r="H63" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>447</v>
+        <v>79</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,14 +7975,17 @@
       <c r="G64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="H64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>487</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,12 +8011,15 @@
       <c r="G65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>488</v>
+      <c r="H65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,14 +8045,17 @@
       <c r="G66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="H66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>490</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,14 +8083,17 @@
       <c r="G67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="H67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>490</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,14 +8121,17 @@
       <c r="G68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>489</v>
+      <c r="H68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,14 +8156,17 @@
       <c r="G69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="H69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>493</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7948,13 +8191,16 @@
       <c r="G70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>494</v>
+      <c r="H70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7980,13 +8226,16 @@
       <c r="G71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>495</v>
+      <c r="H71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8013,13 +8262,16 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>496</v>
+      <c r="H72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8046,14 +8298,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>498</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8079,12 +8334,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>499</v>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,14 +8368,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>501</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,12 +8404,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>502</v>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,12 +8438,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>503</v>
+      <c r="H77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,14 +8472,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="J78" s="3" t="s">
+      <c r="H78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>505</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8238,12 +8508,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>506</v>
+      <c r="H79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,12 +8542,15 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>507</v>
+      <c r="H80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,14 +8576,17 @@
       <c r="G81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="H81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>509</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,14 +8612,17 @@
       <c r="G82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>510</v>
+      <c r="H82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,14 +8650,17 @@
       <c r="G83" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="H83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>512</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,12 +8688,15 @@
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>513</v>
+      <c r="H84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8436,12 +8724,15 @@
       <c r="G85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>514</v>
+      <c r="H85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,14 +8760,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I86" s="1" t="s">
+      <c r="H86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>515</v>
+      <c r="K86" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8504,12 +8798,15 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H87" s="0"/>
-      <c r="I87" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>516</v>
+      <c r="H87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="0"/>
+      <c r="J87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,14 +8834,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I88" s="1" t="s">
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>517</v>
+      <c r="K88" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8572,12 +8872,15 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>518</v>
+      <c r="H89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8604,14 +8907,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>519</v>
+      <c r="H90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>520</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,14 +8944,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>519</v>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8674,14 +8983,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>522</v>
+      <c r="H92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>523</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8710,14 +9022,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>522</v>
+      <c r="H93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,14 +9061,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>522</v>
+      <c r="H94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,14 +9100,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>522</v>
+      <c r="H95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8817,14 +9138,17 @@
       <c r="G96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>527</v>
+      <c r="H96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>528</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8853,14 +9177,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>529</v>
+      <c r="H97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,14 +9216,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>530</v>
+      <c r="H98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,14 +9255,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>531</v>
+      <c r="H99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8961,14 +9294,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>532</v>
+      <c r="H100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8996,14 +9332,17 @@
       <c r="G101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>533</v>
+      <c r="H101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>534</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,14 +9368,17 @@
       <c r="G102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>535</v>
+      <c r="H102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>536</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9062,14 +9404,17 @@
       <c r="G103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>535</v>
+      <c r="H103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9095,14 +9440,17 @@
       <c r="G104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="H104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J104" s="8" t="s">
         <v>539</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,14 +9476,17 @@
       <c r="G105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="J105" s="3" t="s">
+      <c r="H105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J105" s="8" t="s">
         <v>541</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9161,14 +9512,17 @@
       <c r="G106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>542</v>
+      <c r="H106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>543</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9195,14 +9549,17 @@
       <c r="G107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>542</v>
+      <c r="H107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>543</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9230,14 +9587,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>542</v>
+      <c r="H108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>543</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,14 +9626,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>542</v>
+      <c r="H109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9300,14 +9663,17 @@
       <c r="G110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>545</v>
+      <c r="H110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>546</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9334,14 +9700,17 @@
       <c r="G111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>545</v>
+      <c r="H111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9369,14 +9738,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>545</v>
+      <c r="H112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>546</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9404,14 +9776,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H113" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>545</v>
+      <c r="H113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9440,14 +9815,17 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J114" s="3" t="s">
+      <c r="H114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>549</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9476,12 +9854,15 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>550</v>
+      <c r="H115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9506,13 +9887,16 @@
       <c r="G116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>551</v>
+      <c r="H116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J116" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9540,14 +9924,17 @@
       <c r="G117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>552</v>
+      <c r="H117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>553</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,14 +9961,17 @@
       <c r="G118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J118" s="1" t="s">
-        <v>554</v>
+        <v>79</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,14 +9998,17 @@
       <c r="G119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>552</v>
+      <c r="H119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9642,14 +10035,17 @@
       <c r="G120" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J120" s="1" t="s">
-        <v>556</v>
+        <v>79</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9676,14 +10072,17 @@
       <c r="G121" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>552</v>
+      <c r="H121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>553</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,14 +10109,17 @@
       <c r="G122" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J122" s="1" t="s">
-        <v>554</v>
+        <v>79</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9743,14 +10145,17 @@
       <c r="G123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>552</v>
+      <c r="H123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,14 +10181,17 @@
       <c r="G124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>552</v>
+      <c r="H124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9810,14 +10218,18 @@
       <c r="G125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>559</v>
+      <c r="H125" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>560</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9844,14 +10256,18 @@
       <c r="G126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>409</v>
+      <c r="H126" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>561</v>
+        <v>410</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,14 +10295,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>559</v>
+      <c r="H127" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>560</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,14 +10334,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>409</v>
+      <c r="H128" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>561</v>
+        <v>410</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9947,14 +10371,17 @@
       <c r="G129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J129" s="3" t="s">
+      <c r="H129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>563</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9980,14 +10407,17 @@
       <c r="G130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>564</v>
+      <c r="H130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10014,14 +10444,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J131" s="3" t="s">
+      <c r="H131" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>566</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10048,14 +10482,18 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>567</v>
+      <c r="H132" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,12 +10519,16 @@
       <c r="G133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>568</v>
+      <c r="H133" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10112,14 +10554,18 @@
       <c r="G134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>569</v>
+      <c r="H134" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>570</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10145,14 +10591,18 @@
       <c r="G135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>409</v>
+      <c r="H135" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="J135" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J135" s="3" t="s">
         <v>572</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10178,14 +10628,18 @@
       <c r="G136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>409</v>
+      <c r="H136" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>573</v>
+        <v>410</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>574</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10211,14 +10665,18 @@
       <c r="G137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>575</v>
+      <c r="H137" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>576</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10244,14 +10702,18 @@
       <c r="G138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>577</v>
+      <c r="H138" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>578</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10279,14 +10741,18 @@
       <c r="G139" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H139" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>579</v>
+      <c r="H139" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10314,12 +10780,16 @@
       <c r="G140" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="3"/>
-      <c r="I140" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>580</v>
+      <c r="H140" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10347,14 +10817,18 @@
       <c r="G141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>569</v>
+      <c r="H141" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,14 +10856,18 @@
       <c r="G142" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>409</v>
+      <c r="H142" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>582</v>
+        <v>410</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,14 +10895,18 @@
       <c r="G143" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>409</v>
+      <c r="H143" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>573</v>
+        <v>410</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,14 +10934,18 @@
       <c r="G144" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>575</v>
+      <c r="H144" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>576</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10487,14 +10973,18 @@
       <c r="G145" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>577</v>
+      <c r="H145" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>578</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,14 +11012,18 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H146" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J146" s="3" t="s">
+      <c r="H146" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>566</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,14 +11051,18 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H147" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>567</v>
+      <c r="H147" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10591,12 +11089,16 @@
       <c r="G148" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>568</v>
+      <c r="H148" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10623,14 +11125,18 @@
       <c r="G149" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>569</v>
+      <c r="H149" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>570</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10657,14 +11163,18 @@
       <c r="G150" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H150" s="3" t="s">
-        <v>409</v>
+      <c r="H150" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="J150" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J150" s="3" t="s">
         <v>572</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10691,14 +11201,18 @@
       <c r="G151" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H151" s="3" t="s">
-        <v>409</v>
+      <c r="H151" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>573</v>
+        <v>410</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>574</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10725,14 +11239,18 @@
       <c r="G152" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>575</v>
+      <c r="H152" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>576</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10759,18 +11277,208 @@
       <c r="G153" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H153" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>577</v>
+      <c r="H153" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>578</v>
       </c>
+      <c r="K153" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H156" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E157" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F157" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D158" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E158" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F158" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>590</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J153"/>
+  <autoFilter ref="A1:K153"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/EZStacking_config.xlsx
+++ b/EZStacking_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta_package" sheetId="1" state="visible" r:id="rId2"/>
@@ -1659,13 +1659,13 @@
     <t xml:space="preserve">Stacking for regression</t>
   </si>
   <si>
-    <t xml:space="preserve">"model = StackingRegressor(level_0, final_estimator=level_1)"</t>
+    <t xml:space="preserve">"model = StackingRegressor(level_0, final_estimator=level_1, n_jobs=-1)"</t>
   </si>
   <si>
     <t xml:space="preserve">Stacking for classification</t>
   </si>
   <si>
-    <t xml:space="preserve">"model = StackingClassifier(level_0, final_estimator=level_1)"</t>
+    <t xml:space="preserve">"model = StackingClassifier(level_0, final_estimator=level_1, n_jobs=-1)"</t>
   </si>
   <si>
     <t xml:space="preserve">Model fitting</t>
@@ -1963,7 +1963,7 @@
       <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.36"/>
@@ -3733,8 +3733,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
     </sheetView>
@@ -5710,10 +5710,10 @@
   </sheetPr>
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K158" activeCellId="0" sqref="K158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="E85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J90" activeCellId="0" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
